--- a/classfiers/bloated/decisionTree/nearmiss/bloated-decisionTree-nearmiss-results.xlsx
+++ b/classfiers/bloated/decisionTree/nearmiss/bloated-decisionTree-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.962962962962963</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9583333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6875</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.926890756302521</v>
+        <v>0.9221153846153847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.876923076923077</v>
+        <v>0.8666666666666668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8764256234455872</v>
+        <v>0.8701144781144782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
